--- a/biology/Médecine/Ronald_Ross/Ronald_Ross.xlsx
+++ b/biology/Médecine/Ronald_Ross/Ronald_Ross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronald Ross (13 mai 1857 à Almora, Inde - le 16 septembre 1932 à Londres) est un médecin bactériologiste et entomologiste britannique de l’Armée des Indes britanniques qui parvient à montrer, le 20 août 1897, que la transmission du paludisme des oiseaux se fait par un moustique. En 1902, il reçoit le prix Nobel de physiologie ou médecine pour ses travaux sur le paludisme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronald Ross (13 mai 1857 à Almora, Inde - le 16 septembre 1932 à Londres) est un médecin bactériologiste et entomologiste britannique de l’Armée des Indes britanniques qui parvient à montrer, le 20 août 1897, que la transmission du paludisme des oiseaux se fait par un moustique. En 1902, il reçoit le prix Nobel de physiologie ou médecine pour ses travaux sur le paludisme.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronald Ross fait ses études à Londres. Il entre dans les services médicaux militaires anglo-indiens en 1881 et 11 ans plus tard commence ses recherches sur la transmission du paludisme et la lutte contre cette maladie.
 Il travaille longtemps en Inde avec un médecin écossais spécialiste de la filariose, Patrick Manson (1844-1922), père de la médecine tropicale, et applique à la malaria la théorie de Manson sur la filariose : la maladie est due à la transmission d'un parasite - dans ce cas, la filaire - par un moustique.
@@ -521,7 +535,7 @@
 À partir de 1895, il entreprend une série d'expériences scientifiques qui prouvent que le paludisme est transmis par les moustiques. Il détermine également le cycle biologique du parasite paludéen chez le moustique anopheles.
 Le 18 décembre 1897, le British Medical Journal signale que Ross a découvert des kystes paludéens dans les parois de l'estomac d'anophèles ayant piqué un malade atteint de paludisme. Continuant à disséquer des centaines d'anopheles, il en apporte la preuve en février 1898. Le parasite qu'il a découvert est l'un des 24 qui affectent les oiseaux.
 Partant de ses travaux, le scientifique italien Giovanni Battista Grassi (1854-1925) découvre les quatre qui infectent l'homme. Mais ses communications mentionnent à peine le nom de Ronald Ross, et celui-ci lui en voulut jusqu'à la fin de ses jours. Le cycle complet du développement du parasite (il migre vers les glandes salivaires du moustique, d'où il est injecté aux humains) n'est décrit qu'en 1948, également par une équipe britannique.
-En 1902, il est lauréat du prix Nobel de physiologie ou médecine « pour son travail sur la malaria[note 1], par lequel il a montré comment le parasite infectait l'organisme et ainsi a posé les bases de la recherche et de la lutte contre la maladie[1] ». Peu après, le scientifique italien Giovanni Battista Grassi (1854-1925) montrera qu'il en de même pour le paludisme humain, transmis par l’anophèle femelle. Ross a également reçu la Royal Medal en 1909.
+En 1902, il est lauréat du prix Nobel de physiologie ou médecine « pour son travail sur la malaria[note 1], par lequel il a montré comment le parasite infectait l'organisme et ainsi a posé les bases de la recherche et de la lutte contre la maladie ». Peu après, le scientifique italien Giovanni Battista Grassi (1854-1925) montrera qu'il en de même pour le paludisme humain, transmis par l’anophèle femelle. Ross a également reçu la Royal Medal en 1909.
 En 1911, il écrit au sujet du paludisme :
 « Affirmer qu'une maladie est sous la dépendance de certains facteurs sert à bien peu de choses, à moins qu'il soit ne possible d'évaluer l'influence de chacun des facteurs sur le résultat final. »
 « La fièvre paludéenne est importante non seulement en raison des souffrances qu'elle inflige à l'humanité, mais aussi en raison des obstacles qu'elle a toujours opposés aux progrès de la civilisation… Aucun désert, aucune race sauvage, aucune difficulté géographique ne s'est montré aussi hostile à la civilisation que cette maladie. »
